--- a/04-13-25 to 04-19-25 Milwaukee Schedule.xlsx
+++ b/04-13-25 to 04-19-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y66"/>
+  <dimension ref="A1:Y65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Nikki</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1811,21 +1811,9 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
@@ -1919,7 +1907,11 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5:00 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
@@ -1964,7 +1956,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>5:00 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -2007,7 +1999,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -2050,7 +2042,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1072 TWIN LAKES</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -2097,7 +2089,7 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1072 TWIN LAKES</t>
+          <t>700 NORTH LAKE AVENUE SUITE 101</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -2140,7 +2132,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>700 NORTH LAKE AVENUE SUITE 101</t>
+          <t>https://maps.app.goo.gl/EJCh7QYTfkz4egwc8</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -2189,11 +2181,7 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/EJCh7QYTfkz4egwc8</t>
-        </is>
-      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
@@ -2252,9 +2240,23 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe,
+Equip</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
@@ -2297,21 +2299,15 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe,
-Equip</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
@@ -2344,16 +2340,8 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
@@ -2431,7 +2419,11 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5:15 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
@@ -2468,7 +2460,7 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>5:15 AM OFFICE LEAVE TIME</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -2507,7 +2499,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2546,7 +2538,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1042, MANITOWOC</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2581,7 +2573,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1042, MANITOWOC</t>
+          <t>3509 DEWEY ST,  SUITE 100</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -2629,7 +2621,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>3509 DEWEY ST,  SUITE 100</t>
+          <t>https://goo.gl/maps/a6JdzRvBpKR2</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -2670,11 +2662,7 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/a6JdzRvBpKR2</t>
-        </is>
-      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
@@ -2700,9 +2688,21 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2739,21 +2739,9 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2822,7 +2810,11 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
@@ -2859,7 +2851,7 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>5:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -2890,7 +2882,7 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -2921,7 +2913,7 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>ASCENSION COMMUNITY RX #1100-WISC, RACINE</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -2952,7 +2944,7 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>ASCENSION COMMUNITY RX #1100-WISC, RACINE</t>
+          <t>1244 WISCONSIN AVE</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -2983,7 +2975,7 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1244 WISCONSIN AVE</t>
+          <t>https://goo.gl/maps/tu42wujVwN92</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -3014,7 +3006,7 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/tu42wujVwN92</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -3045,7 +3037,7 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -3076,7 +3068,7 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>ASCENSION COMMUNITY RX #1101-SPRING ST, RACINE</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -3107,7 +3099,7 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>ASCENSION COMMUNITY RX #1101-SPRING ST, RACINE</t>
+          <t>3807 SPRING ST</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -3138,7 +3130,7 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>3807 SPRING ST</t>
+          <t>https://goo.gl/maps/345cLtjsHsD2</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -3167,11 +3159,7 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/345cLtjsHsD2</t>
-        </is>
-      </c>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
@@ -3197,9 +3185,21 @@
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -3226,17 +3226,18 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>Driver,
+Red Camry</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -3265,20 +3266,15 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -3298,41 +3294,6 @@
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr"/>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/04-13-25 to 04-19-25 Milwaukee Schedule.xlsx
+++ b/04-13-25 to 04-19-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y65"/>
+  <dimension ref="A1:Y53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1037,7 +1037,11 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Lashaun hold open a spot to pick up Carlie @ Grafton 5:35 am</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
@@ -1109,21 +1113,9 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1174,15 +1166,19 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Brenda</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
@@ -1230,12 +1226,12 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Brenda</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1285,20 +1281,15 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
@@ -1349,19 +1340,15 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>@ Store, After Aurora</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
@@ -1413,18 +1400,18 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
           <t>Driver,
-White Camry</t>
+Red Van</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -1478,15 +1465,19 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>@ Store, After Aurora</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
@@ -1533,15 +1524,20 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Driver,
+White Camry</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
@@ -1584,12 +1580,12 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1647,12 +1643,12 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1698,12 +1694,12 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1753,19 +1749,15 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
@@ -1811,8 +1803,16 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Sophia</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
@@ -1907,11 +1907,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
-        </is>
-      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
@@ -1956,7 +1952,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:00 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1999,7 +1995,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -2042,7 +2038,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1072 TWIN LAKES</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -2089,7 +2085,7 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>700 NORTH LAKE AVENUE SUITE 101</t>
+          <t>AURORA OUTPATIENT RX #1072 TWIN LAKES</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -2132,7 +2128,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/EJCh7QYTfkz4egwc8</t>
+          <t>700 NORTH LAKE AVENUE SUITE 101</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -2181,7 +2177,11 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/EJCh7QYTfkz4egwc8</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
@@ -2240,23 +2240,9 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe,
-Equip</t>
-        </is>
-      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
@@ -2299,15 +2285,21 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe,
+Equip</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
@@ -2340,8 +2332,16 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
@@ -2367,7 +2367,7 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>5:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2406,7 +2406,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2419,11 +2419,7 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>5:15 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
@@ -2447,7 +2443,11 @@
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
@@ -2460,7 +2460,7 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>5:15 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -2486,7 +2486,11 @@
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>ASCENSION COMMUNITY RX #1100-WISC, RACINE</t>
+        </is>
+      </c>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
@@ -2499,7 +2503,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2525,7 +2529,11 @@
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>1244 WISCONSIN AVE</t>
+        </is>
+      </c>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
@@ -2538,7 +2546,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1042, MANITOWOC</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2560,7 +2568,11 @@
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/tu42wujVwN92</t>
+        </is>
+      </c>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
@@ -2573,7 +2585,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>3509 DEWEY ST,  SUITE 100</t>
+          <t>AURORA OUTPATIENT RX #1042, MANITOWOC</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -2608,7 +2620,11 @@
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>TO FOLLOW</t>
+        </is>
+      </c>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
@@ -2621,7 +2637,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/a6JdzRvBpKR2</t>
+          <t>3509 DEWEY ST,  SUITE 100</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -2651,7 +2667,11 @@
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+        </is>
+      </c>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
@@ -2662,7 +2682,11 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/a6JdzRvBpKR2</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
@@ -2678,7 +2702,11 @@
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>ASCENSION COMMUNITY RX #1101-SPRING ST, RACINE</t>
+        </is>
+      </c>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
@@ -2688,21 +2716,9 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2729,7 +2745,11 @@
       </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>3807 SPRING ST</t>
+        </is>
+      </c>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
@@ -2739,9 +2759,21 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2764,7 +2796,11 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/345cLtjsHsD2</t>
+        </is>
+      </c>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
@@ -2810,11 +2846,7 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>5:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
-        </is>
-      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
@@ -2837,9 +2869,22 @@
       </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Driver,
+White Camry, Equip</t>
+        </is>
+      </c>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
     </row>
@@ -2851,7 +2896,7 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -2868,8 +2913,16 @@
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
@@ -2882,7 +2935,7 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -2899,401 +2952,16 @@
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr"/>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>ASCENSION COMMUNITY RX #1100-WISC, RACINE</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr"/>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>1244 WISCONSIN AVE</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr"/>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/tu42wujVwN92</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr"/>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>TO FOLLOW</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr"/>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr"/>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>ASCENSION COMMUNITY RX #1101-SPRING ST, RACINE</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr"/>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>3807 SPRING ST</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr"/>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/345cLtjsHsD2</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr"/>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr"/>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr"/>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr"/>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/04-13-25 to 04-19-25 Milwaukee Schedule.xlsx
+++ b/04-13-25 to 04-19-25 Milwaukee Schedule.xlsx
@@ -1298,12 +1298,13 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>@ Grafton</t>
+          <t>1st Festival,
+work w/ Carlie</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
@@ -1357,13 +1358,13 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Driver,
-Sante Fe</t>
+          <t>@ Grafton,
+Trainer</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
@@ -1422,13 +1423,13 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Sante Fe</t>
         </is>
       </c>
       <c r="L21" t="inlineStr"/>
@@ -1486,10 +1487,15 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
@@ -1546,7 +1552,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1597,7 +1603,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1660,7 +1666,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1711,7 +1717,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -1766,7 +1772,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -1803,16 +1809,8 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
@@ -1822,7 +1820,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -1907,7 +1905,11 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5:00 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
@@ -1952,7 +1954,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>5:00 AM MEET SOUTH RACINE COURT (HWY 43 &amp; Y)</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1995,7 +1997,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -2038,7 +2040,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1072 TWIN LAKES</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -2085,7 +2087,7 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1072 TWIN LAKES</t>
+          <t>700 NORTH LAKE AVENUE SUITE 101</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -2128,7 +2130,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>700 NORTH LAKE AVENUE SUITE 101</t>
+          <t>https://maps.app.goo.gl/EJCh7QYTfkz4egwc8</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -2177,11 +2179,7 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/EJCh7QYTfkz4egwc8</t>
-        </is>
-      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
@@ -2240,9 +2238,23 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe,
+Equip</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
@@ -2285,21 +2297,15 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe,
-Equip</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
@@ -2332,16 +2338,8 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
@@ -2419,7 +2417,11 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5:15 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
@@ -2460,7 +2462,7 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>5:15 AM OFFICE LEAVE TIME</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -2503,7 +2505,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2546,7 +2548,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1042, MANITOWOC</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2585,7 +2587,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1042, MANITOWOC</t>
+          <t>3509 DEWEY ST,  SUITE 100</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -2637,7 +2639,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>3509 DEWEY ST,  SUITE 100</t>
+          <t>https://goo.gl/maps/a6JdzRvBpKR2</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -2682,11 +2684,7 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/a6JdzRvBpKR2</t>
-        </is>
-      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
@@ -2716,9 +2714,21 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2759,21 +2769,9 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2846,7 +2844,11 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
@@ -2896,7 +2898,7 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -2933,11 +2935,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>

--- a/04-13-25 to 04-19-25 Milwaukee Schedule.xlsx
+++ b/04-13-25 to 04-19-25 Milwaukee Schedule.xlsx
@@ -2009,7 +2009,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>SHELL (DINO STOP), MANITOWOC</t>
+          <t>CONTACT IS MARVIN</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2056,7 +2056,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>5050 HECKER RD</t>
+          <t>SHELL (DINO STOP), MANITOWOC</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2103,7 +2103,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/FpQmW7uTjKMUDrpe8</t>
+          <t>5050 HECKER RD</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2144,7 +2144,11 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/FpQmW7uTjKMUDrpe8</t>
+        </is>
+      </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
@@ -2190,22 +2194,9 @@
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
@@ -2266,15 +2257,20 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
@@ -2315,8 +2311,16 @@
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>

--- a/04-13-25 to 04-19-25 Milwaukee Schedule.xlsx
+++ b/04-13-25 to 04-19-25 Milwaukee Schedule.xlsx
@@ -2868,11 +2868,7 @@
           <t>4)</t>
         </is>
       </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
+      <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">

--- a/04-13-25 to 04-19-25 Milwaukee Schedule.xlsx
+++ b/04-13-25 to 04-19-25 Milwaukee Schedule.xlsx
@@ -2868,7 +2868,11 @@
           <t>4)</t>
         </is>
       </c>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">

--- a/04-13-25 to 04-19-25 Milwaukee Schedule.xlsx
+++ b/04-13-25 to 04-19-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y53"/>
+  <dimension ref="A1:Y52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2933,37 +2933,6 @@
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr"/>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/04-13-25 to 04-19-25 Milwaukee Schedule.xlsx
+++ b/04-13-25 to 04-19-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y52"/>
+  <dimension ref="A1:Y53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2933,6 +2933,41 @@
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
     </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
